--- a/src/Sadi/CreatingDataset/WorkingCSVs_DONT_DELETE/Statistics_Dump.xlsx
+++ b/src/Sadi/CreatingDataset/WorkingCSVs_DONT_DELETE/Statistics_Dump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\Sadi\CreatingDataset\WorkingCSVs_DONT_DELETE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1384A751-5A9C-4D50-9C5F-3D01082BECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B903F32-FFCE-49B3-8181-F3A352B2E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1A9B1D51-F8BE-4661-9EC8-32D4E37733B0}"/>
   </bookViews>
@@ -723,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ref="B7:B31" si="0">PRODUCT(((24-16)/24), 100)</f>
+        <f t="shared" ref="B7:B24" si="0">PRODUCT(((24-16)/24), 100)</f>
         <v>33.333333333333329</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ref="B8:B31" si="0">PRODUCT((28/30), 100)</f>
+        <f t="shared" ref="B10:B25" si="0">PRODUCT((28/30), 100)</f>
         <v>93.333333333333329</v>
       </c>
     </row>
